--- a/Data/EUDA/Cannabis_detaille/niveau_educ_jamais_traite.xlsx
+++ b/Data/EUDA/Cannabis_detaille/niveau_educ_jamais_traite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Never went to school / never completed primary school (ISCED 0).jamais.jamais</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Never went to school / never completed primary school (ISCED 0)</t>
+          <t>Primary level of education (ISCED 1).jamais.jamais</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Primary level of education (ISCED 1)</t>
+          <t>Secondary level of education (ISCED 2 and ISCED 3).jamais.jamais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Secondary level of education (ISCED 2 and ISCED 3)</t>
+          <t>Higher education (ISCED 4 to ISCED 6).jamais.jamais</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Higher education (ISCED 4 to ISCED 6)</t>
+          <t>Not known / missing.jamais.jamais</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.jamais.jamais</t>
         </is>
       </c>
     </row>
@@ -482,24 +477,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>588</v>
       </c>
       <c r="E2" t="n">
-        <v>588</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
-      </c>
-      <c r="H2" t="n">
         <v>666</v>
       </c>
     </row>
@@ -510,24 +502,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>921</v>
       </c>
       <c r="E3" t="n">
-        <v>921</v>
+        <v>117</v>
       </c>
       <c r="F3" t="n">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="G3" t="n">
-        <v>225</v>
-      </c>
-      <c r="H3" t="n">
         <v>1850</v>
       </c>
     </row>
@@ -538,24 +527,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>38</v>
-      </c>
-      <c r="E4" t="n">
-        <v>26</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
         <v>66</v>
       </c>
     </row>
@@ -566,24 +552,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="E5" t="n">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" t="n">
         <v>288</v>
       </c>
     </row>
@@ -594,24 +577,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
         <v>251</v>
       </c>
     </row>
@@ -621,23 +601,20 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>122</v>
+      </c>
       <c r="D7" t="n">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E7" t="n">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>311</v>
       </c>
       <c r="G7" t="n">
-        <v>311</v>
-      </c>
-      <c r="H7" t="n">
         <v>539</v>
       </c>
     </row>
@@ -648,24 +625,21 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D8" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="E8" t="n">
-        <v>970</v>
+        <v>286</v>
       </c>
       <c r="F8" t="n">
-        <v>286</v>
+        <v>47</v>
       </c>
       <c r="G8" t="n">
-        <v>47</v>
-      </c>
-      <c r="H8" t="n">
         <v>1493</v>
       </c>
     </row>
@@ -675,19 +649,16 @@
           <t>Estonia *</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
       <c r="D9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" t="n">
         <v>6</v>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
+      <c r="G9" t="n">
         <v>11</v>
       </c>
     </row>
@@ -698,24 +669,21 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>23</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10</v>
-      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
         <v>36</v>
       </c>
     </row>
@@ -726,24 +694,21 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="D11" t="n">
-        <v>345</v>
+        <v>6933</v>
       </c>
       <c r="E11" t="n">
-        <v>6933</v>
+        <v>1196</v>
       </c>
       <c r="F11" t="n">
-        <v>1196</v>
+        <v>2078</v>
       </c>
       <c r="G11" t="n">
-        <v>2078</v>
-      </c>
-      <c r="H11" t="n">
         <v>10578</v>
       </c>
     </row>
@@ -753,21 +718,18 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>3532</v>
+      </c>
       <c r="D12" t="n">
-        <v>3532</v>
-      </c>
-      <c r="E12" t="n">
         <v>9940</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>1509</v>
+      </c>
       <c r="G12" t="n">
-        <v>1509</v>
-      </c>
-      <c r="H12" t="n">
         <v>14981</v>
       </c>
     </row>
@@ -778,24 +740,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>446</v>
       </c>
       <c r="E13" t="n">
-        <v>446</v>
+        <v>73</v>
       </c>
       <c r="F13" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G13" t="n">
-        <v>84</v>
-      </c>
-      <c r="H13" t="n">
         <v>684</v>
       </c>
     </row>
@@ -806,24 +765,21 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="D14" t="n">
-        <v>700</v>
+        <v>993</v>
       </c>
       <c r="E14" t="n">
-        <v>993</v>
+        <v>141</v>
       </c>
       <c r="F14" t="n">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="G14" t="n">
-        <v>37</v>
-      </c>
-      <c r="H14" t="n">
         <v>1895</v>
       </c>
     </row>
@@ -834,24 +790,21 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="D15" t="n">
-        <v>194</v>
+        <v>1076</v>
       </c>
       <c r="E15" t="n">
-        <v>1076</v>
+        <v>114</v>
       </c>
       <c r="F15" t="n">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="G15" t="n">
-        <v>63</v>
-      </c>
-      <c r="H15" t="n">
         <v>1463</v>
       </c>
     </row>
@@ -862,24 +815,21 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="D16" t="n">
-        <v>135</v>
+        <v>2917</v>
       </c>
       <c r="E16" t="n">
-        <v>2917</v>
+        <v>86</v>
       </c>
       <c r="F16" t="n">
-        <v>86</v>
+        <v>1022</v>
       </c>
       <c r="G16" t="n">
-        <v>1022</v>
-      </c>
-      <c r="H16" t="n">
         <v>4194</v>
       </c>
     </row>
@@ -890,24 +840,21 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E17" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="G17" t="n">
-        <v>72</v>
-      </c>
-      <c r="H17" t="n">
         <v>165</v>
       </c>
     </row>
@@ -917,19 +864,16 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2022</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
       <c r="E18" t="n">
-        <v>8</v>
-      </c>
-      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -939,21 +883,18 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>34</v>
+      </c>
       <c r="D19" t="n">
-        <v>34</v>
-      </c>
-      <c r="E19" t="n">
         <v>15</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
       <c r="G19" t="n">
-        <v>8</v>
-      </c>
-      <c r="H19" t="n">
         <v>57</v>
       </c>
     </row>
@@ -964,24 +905,21 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="n">
         <v>82</v>
       </c>
     </row>
@@ -992,24 +930,21 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>108</v>
       </c>
       <c r="C21" t="n">
-        <v>108</v>
+        <v>620</v>
       </c>
       <c r="D21" t="n">
-        <v>620</v>
+        <v>1168</v>
       </c>
       <c r="E21" t="n">
-        <v>1168</v>
+        <v>145</v>
       </c>
       <c r="F21" t="n">
-        <v>145</v>
+        <v>1584</v>
       </c>
       <c r="G21" t="n">
-        <v>1584</v>
-      </c>
-      <c r="H21" t="n">
         <v>3625</v>
       </c>
     </row>
@@ -1025,7 +960,6 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1034,24 +968,21 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="D23" t="n">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="E23" t="n">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="F23" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>19</v>
-      </c>
-      <c r="H23" t="n">
         <v>648</v>
       </c>
     </row>
@@ -1062,24 +993,21 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="D24" t="n">
-        <v>230</v>
+        <v>556</v>
       </c>
       <c r="E24" t="n">
-        <v>556</v>
+        <v>95</v>
       </c>
       <c r="F24" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
-      </c>
-      <c r="H24" t="n">
         <v>896</v>
       </c>
     </row>
@@ -1090,24 +1018,21 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D25" t="n">
-        <v>63</v>
+        <v>1222</v>
       </c>
       <c r="E25" t="n">
-        <v>1222</v>
+        <v>293</v>
       </c>
       <c r="F25" t="n">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>22</v>
-      </c>
-      <c r="H25" t="n">
         <v>1606</v>
       </c>
     </row>
@@ -1118,24 +1043,21 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D26" t="n">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E26" t="n">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>28</v>
-      </c>
-      <c r="H26" t="n">
         <v>250</v>
       </c>
     </row>
@@ -1145,21 +1067,18 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1170,24 +1089,21 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>978</v>
       </c>
       <c r="C28" t="n">
-        <v>978</v>
+        <v>3267</v>
       </c>
       <c r="D28" t="n">
-        <v>3267</v>
+        <v>3631</v>
       </c>
       <c r="E28" t="n">
-        <v>3631</v>
+        <v>452</v>
       </c>
       <c r="F28" t="n">
-        <v>452</v>
+        <v>201</v>
       </c>
       <c r="G28" t="n">
-        <v>201</v>
-      </c>
-      <c r="H28" t="n">
         <v>8529</v>
       </c>
     </row>
@@ -1203,7 +1119,6 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1212,20 +1127,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>577</v>
       </c>
       <c r="D30" t="n">
-        <v>577</v>
-      </c>
-      <c r="E30" t="n">
         <v>84</v>
       </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
+      <c r="G30" t="n">
         <v>669</v>
       </c>
     </row>
@@ -1237,7 +1149,6 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1251,7 +1162,6 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1265,7 +1175,6 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1279,7 +1188,6 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1293,7 +1201,6 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1307,7 +1214,6 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
